--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.48231073680664</v>
+        <v>142.5638088596519</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.116086399842</v>
+        <v>195.0620927530474</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.1253581540046</v>
+        <v>176.4456403921184</v>
       </c>
       <c r="AD2" t="n">
-        <v>99482.31073680664</v>
+        <v>142563.8088596519</v>
       </c>
       <c r="AE2" t="n">
-        <v>136116.086399842</v>
+        <v>195062.0927530474</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.516328216064808e-06</v>
+        <v>5.069365257813795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>123125.3581540046</v>
+        <v>176445.6403921184</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.69121798729216</v>
+        <v>119.0540969686335</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.8782607630081</v>
+        <v>162.8950677684836</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.819002191977</v>
+        <v>147.348591125368</v>
       </c>
       <c r="AD3" t="n">
-        <v>84691.21798729217</v>
+        <v>119054.0969686335</v>
       </c>
       <c r="AE3" t="n">
-        <v>115878.2607630081</v>
+        <v>162895.0677684837</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.065483884211912e-06</v>
+        <v>5.861063442447974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.473958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104819.0021919771</v>
+        <v>147348.591125368</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.14840329570259</v>
+        <v>116.8180975157142</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.7673136377959</v>
+        <v>159.8356746716673</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.9095208976615</v>
+        <v>144.5811822118256</v>
       </c>
       <c r="AD2" t="n">
-        <v>83148.40329570259</v>
+        <v>116818.0975157142</v>
       </c>
       <c r="AE2" t="n">
-        <v>113767.3136377959</v>
+        <v>159835.6746716673</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.109076196783562e-06</v>
+        <v>6.015532972947373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>102909.5208976615</v>
+        <v>144581.1822118256</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.44565145667335</v>
+        <v>114.9447534760928</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.4375334515278</v>
+        <v>157.2724827105523</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.8020916625031</v>
+        <v>142.2626176940162</v>
       </c>
       <c r="AD3" t="n">
-        <v>81445.65145667335</v>
+        <v>114944.7534760928</v>
       </c>
       <c r="AE3" t="n">
-        <v>111437.5334515278</v>
+        <v>157272.4827105523</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.308236230814053e-06</v>
+        <v>6.30709577057608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>100802.0916625031</v>
+        <v>142262.6176940162</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.54614636746128</v>
+        <v>104.4447091038281</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.6290820869047</v>
+        <v>142.9058587711623</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.02518372635943</v>
+        <v>129.2671241797136</v>
       </c>
       <c r="AD2" t="n">
-        <v>73546.14636746128</v>
+        <v>104444.7091038281</v>
       </c>
       <c r="AE2" t="n">
-        <v>100629.0820869047</v>
+        <v>142905.8587711623</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.818114650338059e-06</v>
+        <v>7.454218078009438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>91025.18372635944</v>
+        <v>129267.1241797136</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.38068810751496</v>
+        <v>100.4451741512995</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.5074271468001</v>
+        <v>137.4335186020863</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.53338497703112</v>
+        <v>124.3170564758948</v>
       </c>
       <c r="AD2" t="n">
-        <v>76380.68810751496</v>
+        <v>100445.1741512994</v>
       </c>
       <c r="AE2" t="n">
-        <v>104507.4271468001</v>
+        <v>137433.5186020863</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.679294568823258e-06</v>
+        <v>7.07178965841397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>94533.38497703112</v>
+        <v>124317.0564758948</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.88488151270448</v>
+        <v>102.1201280612687</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.35606622279475</v>
+        <v>139.7252644354564</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.96910130612157</v>
+        <v>126.3900813034143</v>
       </c>
       <c r="AD2" t="n">
-        <v>71884.88151270448</v>
+        <v>102120.1280612687</v>
       </c>
       <c r="AE2" t="n">
-        <v>98356.06622279475</v>
+        <v>139725.2644354564</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.751913717806799e-06</v>
+        <v>7.510342562137574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.669270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>88969.10130612158</v>
+        <v>126390.0813034143</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.83595925626896</v>
+        <v>118.7326898660298</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.0763021527562</v>
+        <v>162.4553043912209</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.9981427894405</v>
+        <v>146.9507981476194</v>
       </c>
       <c r="AD2" t="n">
-        <v>84835.95925626896</v>
+        <v>118732.6898660298</v>
       </c>
       <c r="AE2" t="n">
-        <v>116076.3021527562</v>
+        <v>162455.3043912209</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.969147913281378e-06</v>
+        <v>5.786566321422632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.8515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>104998.1427894405</v>
+        <v>146950.7981476194</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.2500367797093</v>
+        <v>115.976175188878</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.5381289374809</v>
+        <v>158.6837194010988</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.7976478599727</v>
+        <v>143.5391679355005</v>
       </c>
       <c r="AD3" t="n">
-        <v>82250.03677970931</v>
+        <v>115976.175188878</v>
       </c>
       <c r="AE3" t="n">
-        <v>112538.1289374809</v>
+        <v>158683.7194010988</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.248693008917383e-06</v>
+        <v>6.194111283481975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.330729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>101797.6478599727</v>
+        <v>143539.1679355005</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.84662246293665</v>
+        <v>107.8527506590119</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.93547438614658</v>
+        <v>147.5688915791445</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.68408876054951</v>
+        <v>133.4851236811112</v>
       </c>
       <c r="AD2" t="n">
-        <v>70846.62246293665</v>
+        <v>107852.7506590119</v>
       </c>
       <c r="AE2" t="n">
-        <v>96935.47438614658</v>
+        <v>147568.8915791445</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.678737480318912e-06</v>
+        <v>7.496436468040863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>87684.08876054951</v>
+        <v>133485.1236811112</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.00333681172663</v>
+        <v>103.7030647861961</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.0958508069956</v>
+        <v>141.8911082967406</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.77933451948297</v>
+        <v>128.3492200663592</v>
       </c>
       <c r="AD2" t="n">
-        <v>79003.33681172662</v>
+        <v>103703.0647861961</v>
       </c>
       <c r="AE2" t="n">
-        <v>108095.8508069956</v>
+        <v>141891.1082967406</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.494496045786562e-06</v>
+        <v>6.673621878111491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97779.33451948297</v>
+        <v>128349.2200663592</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.09195598355829</v>
+        <v>103.7916839580277</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.2171034674976</v>
+        <v>142.0123609572425</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.88901499624582</v>
+        <v>128.458900543122</v>
       </c>
       <c r="AD3" t="n">
-        <v>79091.95598355829</v>
+        <v>103791.6839580277</v>
       </c>
       <c r="AE3" t="n">
-        <v>108217.1034674976</v>
+        <v>142012.3609572425</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.489097445982867e-06</v>
+        <v>6.66560580391895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>97889.01499624582</v>
+        <v>128458.900543122</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.2050883196372</v>
+        <v>114.4685206056314</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.1083843545385</v>
+        <v>156.6208798872759</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.5043560933667</v>
+        <v>141.6732029296627</v>
       </c>
       <c r="AD2" t="n">
-        <v>81205.0883196372</v>
+        <v>114468.5206056314</v>
       </c>
       <c r="AE2" t="n">
-        <v>111108.3843545385</v>
+        <v>156620.8798872759</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.300771615271377e-06</v>
+        <v>6.324037276183417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>100504.3560933667</v>
+        <v>141673.2029296627</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.70871490736366</v>
+        <v>113.9721471933578</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.4292243534168</v>
+        <v>155.9417198861541</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.89001416954471</v>
+        <v>141.0588610058407</v>
       </c>
       <c r="AD3" t="n">
-        <v>80708.71490736365</v>
+        <v>113972.1471933578</v>
       </c>
       <c r="AE3" t="n">
-        <v>110429.2243534168</v>
+        <v>155941.7198861541</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.364075611535517e-06</v>
+        <v>6.417122161389659e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>99890.01416954471</v>
+        <v>141058.8610058407</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.58007949069115</v>
+        <v>131.8228089779868</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.5133696883883</v>
+        <v>180.3657828554891</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.7710410725554</v>
+        <v>163.1519256847779</v>
       </c>
       <c r="AD2" t="n">
-        <v>97580.07949069115</v>
+        <v>131822.8089779868</v>
       </c>
       <c r="AE2" t="n">
-        <v>133513.3696883883</v>
+        <v>180365.7828554891</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.637750319540021e-06</v>
+        <v>5.262997148423932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.424479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>120771.0410725554</v>
+        <v>163151.9256847779</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.4555008781965</v>
+        <v>117.6128895109206</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.187498098353</v>
+        <v>160.9231441432562</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.2896035430358</v>
+        <v>145.5648651233194</v>
       </c>
       <c r="AD3" t="n">
-        <v>83455.5008781965</v>
+        <v>117612.8895109206</v>
       </c>
       <c r="AE3" t="n">
-        <v>114187.498098353</v>
+        <v>160923.1441432562</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.174732174512513e-06</v>
+        <v>6.039887732776344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>103289.6035430358</v>
+        <v>145564.8651233194</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.17846787287915</v>
+        <v>101.4659850810267</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.5989846173301</v>
+        <v>138.8302371511382</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.52076573458463</v>
+        <v>125.5804741669325</v>
       </c>
       <c r="AD2" t="n">
-        <v>77178.46787287915</v>
+        <v>101465.9850810267</v>
       </c>
       <c r="AE2" t="n">
-        <v>105598.9846173301</v>
+        <v>138830.2371511382</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.63452727848713e-06</v>
+        <v>6.959598307428753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>95520.76573458462</v>
+        <v>125580.4741669325</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.66105746189777</v>
+        <v>105.9232332296269</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.1545526327181</v>
+        <v>144.9288407079601</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.40506550429217</v>
+        <v>131.0970355597371</v>
       </c>
       <c r="AD2" t="n">
-        <v>74661.05746189777</v>
+        <v>105923.2332296269</v>
       </c>
       <c r="AE2" t="n">
-        <v>102154.5526327181</v>
+        <v>144928.8407079601</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.755230232196009e-06</v>
+        <v>7.293318908814728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>92405.06550429217</v>
+        <v>131097.0355597371</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.68214071510423</v>
+        <v>103.1845888748772</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.44691143611118</v>
+        <v>141.1817066813317</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.95583778329032</v>
+        <v>127.7075227454733</v>
       </c>
       <c r="AD2" t="n">
-        <v>72682.14071510422</v>
+        <v>103184.5888748773</v>
       </c>
       <c r="AE2" t="n">
-        <v>99446.91143611119</v>
+        <v>141181.7066813317</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.814511372305864e-06</v>
+        <v>7.522579051231146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>89955.83778329032</v>
+        <v>127707.5227454733</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.40800518488389</v>
+        <v>113.7814451261353</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.9130476940864</v>
+        <v>155.6807929045989</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.80485507208563</v>
+        <v>140.8228365291918</v>
       </c>
       <c r="AD2" t="n">
-        <v>77408.00518488389</v>
+        <v>113781.4451261353</v>
       </c>
       <c r="AE2" t="n">
-        <v>105913.0476940864</v>
+        <v>155680.7929045989</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.445046466177043e-06</v>
+        <v>7.243986136429775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.619791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>95804.85507208563</v>
+        <v>140822.8365291918</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.59112244570098</v>
+        <v>104.4827988719153</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.900085042671</v>
+        <v>142.9579748722612</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.50681376845556</v>
+        <v>129.3142663932691</v>
       </c>
       <c r="AD2" t="n">
-        <v>79591.12244570098</v>
+        <v>104482.7988719153</v>
       </c>
       <c r="AE2" t="n">
-        <v>108900.085042671</v>
+        <v>142957.9748722612</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.457076907592938e-06</v>
+        <v>6.58479986865474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>98506.81376845555</v>
+        <v>129314.2663932691</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.72977851400492</v>
+        <v>104.6214549402192</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.0898003923984</v>
+        <v>143.1476902219885</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.67842295147217</v>
+        <v>129.4858755762857</v>
       </c>
       <c r="AD3" t="n">
-        <v>79729.77851400492</v>
+        <v>104621.4549402192</v>
       </c>
       <c r="AE3" t="n">
-        <v>109089.8003923984</v>
+        <v>143147.6902219885</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.448583298227549e-06</v>
+        <v>6.572251573215112e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>98678.42295147217</v>
+        <v>129485.8755762857</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.41071333505391</v>
+        <v>129.4413933518594</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.5451472085668</v>
+        <v>177.1074249351807</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.0861015802806</v>
+        <v>160.2045408712486</v>
       </c>
       <c r="AD2" t="n">
-        <v>95410.71333505391</v>
+        <v>129441.3933518594</v>
       </c>
       <c r="AE2" t="n">
-        <v>130545.1472085667</v>
+        <v>177107.4249351807</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.8020716710271e-06</v>
+        <v>5.521250675865626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>118086.1015802806</v>
+        <v>160204.5408712486</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.96450074758751</v>
+        <v>116.9098399098214</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.5156900582571</v>
+        <v>159.9612006626734</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.6819119193979</v>
+        <v>144.6947281784271</v>
       </c>
       <c r="AD3" t="n">
-        <v>82964.5007475875</v>
+        <v>116909.8399098214</v>
       </c>
       <c r="AE3" t="n">
-        <v>113515.6900582571</v>
+        <v>159961.2006626734</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.2051153715405e-06</v>
+        <v>6.106538249695565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>102681.9119193979</v>
+        <v>144694.7281784271</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.1002955749567</v>
+        <v>126.5933640802412</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.6474434669941</v>
+        <v>173.2106256395707</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.7512664063226</v>
+        <v>156.6796466312182</v>
       </c>
       <c r="AD2" t="n">
-        <v>91100.2955749567</v>
+        <v>126593.3640802412</v>
       </c>
       <c r="AE2" t="n">
-        <v>124647.4434669941</v>
+        <v>173210.6256395707</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.922977570594131e-06</v>
+        <v>6.539369882935762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>112751.2664063226</v>
+        <v>156679.6466312182</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.69605184614568</v>
+        <v>99.52376428214404</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.570677609975</v>
+        <v>136.1728049693739</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.68603750126404</v>
+        <v>123.1766635828655</v>
       </c>
       <c r="AD2" t="n">
-        <v>75696.05184614568</v>
+        <v>99523.76428214404</v>
       </c>
       <c r="AE2" t="n">
-        <v>103570.677609975</v>
+        <v>136172.8049693739</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.697389007054226e-06</v>
+        <v>7.148987434639217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>93686.03750126404</v>
+        <v>123176.6635828655</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.00187204959012</v>
+        <v>102.5006250172344</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.725602537934</v>
+        <v>140.2458771569494</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.53986082206463</v>
+        <v>126.8610074774527</v>
       </c>
       <c r="AD2" t="n">
-        <v>78001.87204959012</v>
+        <v>102500.6250172344</v>
       </c>
       <c r="AE2" t="n">
-        <v>106725.602537934</v>
+        <v>140245.8771569494</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.582776163782716e-06</v>
+        <v>6.841675543217365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>96539.86082206463</v>
+        <v>126861.0074774527</v>
       </c>
     </row>
   </sheetData>
